--- a/01_분석_설계/01_WBS_일정관리_v1.0.xlsx
+++ b/01_분석_설계/01_WBS_일정관리_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backend_Project\Backend_Project_1_Doc\01_분석_설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0E2CCD-50CD-4848-B87B-41797807B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D60B705-E462-4C9B-9B1C-F8BEB2C1E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,66 +843,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,6 +878,66 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,10 +1154,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E12"/>
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1207,25 +1210,25 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="34"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="43"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1243,25 +1246,25 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="46">
         <v>45399</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="34"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="43"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1279,25 +1282,25 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="46">
         <v>45428</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="34"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="43"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1315,10 +1318,10 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1349,10 +1352,10 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="46">
         <v>45399</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1383,27 +1386,27 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="34"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1478,132 +1481,132 @@
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="49" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="42"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="54"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43" t="s">
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43" t="s">
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="44" t="s">
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="46"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="58"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="58" t="s">
+      <c r="N12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="58" t="s">
+      <c r="Q12" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="58" t="s">
+      <c r="R12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="58" t="s">
+      <c r="S12" s="38" t="s">
         <v>23</v>
       </c>
       <c r="T12" s="11" t="s">
@@ -1636,7 +1639,7 @@
     </row>
     <row r="13" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1651,21 +1654,21 @@
       <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="39">
         <v>1</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
@@ -1678,7 +1681,7 @@
     </row>
     <row r="14" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="31"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1691,7 +1694,7 @@
       <c r="F14" s="14">
         <v>1</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="40">
         <v>1</v>
       </c>
       <c r="H14" s="1"/>
@@ -1717,7 +1720,7 @@
     </row>
     <row r="15" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
@@ -1730,7 +1733,7 @@
       <c r="F15" s="14">
         <v>1</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="40">
         <v>2</v>
       </c>
       <c r="H15" s="1"/>
@@ -1757,7 +1760,7 @@
     </row>
     <row r="16" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="31"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1773,7 @@
       <c r="F16" s="14">
         <v>1</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="40">
         <v>2</v>
       </c>
       <c r="H16" s="1"/>
@@ -1778,7 +1781,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="57"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -1797,7 +1800,7 @@
     </row>
     <row r="17" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
@@ -1810,7 +1813,7 @@
       <c r="F17" s="14">
         <v>0.8</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="40">
         <v>6</v>
       </c>
       <c r="H17" s="1"/>
@@ -1852,7 +1855,7 @@
       <c r="F18" s="14">
         <v>0</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="40">
         <v>1</v>
       </c>
       <c r="H18" s="1"/>
@@ -1864,7 +1867,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="50"/>
+      <c r="R18" s="30"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1878,7 +1881,7 @@
     </row>
     <row r="19" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1893,7 +1896,7 @@
       <c r="F19" s="14">
         <v>0.5</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="40">
         <v>1</v>
       </c>
       <c r="H19" s="1"/>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="20" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
@@ -1932,7 +1935,7 @@
       <c r="F20" s="14">
         <v>0.7</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="40">
         <v>3</v>
       </c>
       <c r="H20" s="1"/>
@@ -1959,7 +1962,7 @@
     </row>
     <row r="21" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="12" t="s">
         <v>39</v>
       </c>
@@ -1972,7 +1975,7 @@
       <c r="F21" s="14">
         <v>0</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="40">
         <v>4</v>
       </c>
       <c r="H21" s="1"/>
@@ -1999,7 +2002,7 @@
     </row>
     <row r="22" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="12" t="s">
         <v>40</v>
       </c>
@@ -2012,7 +2015,7 @@
       <c r="F22" s="14">
         <v>0</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="40">
         <v>4</v>
       </c>
       <c r="H22" s="1"/>
@@ -2053,7 +2056,7 @@
       <c r="F23" s="14">
         <v>0</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="40">
         <v>2</v>
       </c>
       <c r="H23" s="1"/>
@@ -2095,7 +2098,7 @@
       <c r="F24" s="14">
         <v>0</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="40">
         <v>2</v>
       </c>
       <c r="H24" s="1"/>
@@ -2114,8 +2117,8 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="52"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="32"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="19"/>
@@ -2137,7 +2140,7 @@
       <c r="F25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="41">
         <v>1</v>
       </c>
       <c r="H25" s="29"/>
@@ -2158,9 +2161,9 @@
       <c r="W25" s="28"/>
       <c r="X25" s="28"/>
       <c r="Y25" s="28"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="54"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="34"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -31414,20 +31417,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:Q3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="X11:AB11"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C6:D6"/>
@@ -31437,9 +31426,23 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>